--- a/Assets/Scrips/Excel/GameDB.xlsx
+++ b/Assets/Scrips/Excel/GameDB.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOON\Desktop\3D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\20241014\3D_RPG_241013\Assets\Scrips\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D32FCA8-8A68-4B24-AABD-D3CD4A9953ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DialogEntites" sheetId="1" r:id="rId1"/>
+    <sheet name="GameDataEntites" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>branch</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,13 +73,65 @@
   </si>
   <si>
     <t>하호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iconPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sword1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경로없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sword2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중급검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본검이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중급검이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefabPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경로읍다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -400,11 +454,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -491,4 +545,84 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44717FBE-5473-45E9-B58B-00F4718DDAAE}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="21.375" customWidth="1"/>
+    <col min="5" max="5" width="36.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assets/Scrips/Excel/GameDB.xlsx
+++ b/Assets/Scrips/Excel/GameDB.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\20241014\3D_RPG_241013\Assets\Scrips\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\241013 3D\3D_RPG_241013\Assets\Scrips\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D32FCA8-8A68-4B24-AABD-D3CD4A9953ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DialogEntites" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>branch</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,22 +83,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sword1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기본검</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>경로없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sword2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>중급검</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -125,13 +112,29 @@
   </si>
   <si>
     <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sword2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sword1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Sword1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Sword2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -454,7 +457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -548,15 +551,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44717FBE-5473-45E9-B58B-00F4718DDAAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="3" max="3" width="34.5" customWidth="1"/>
     <col min="4" max="4" width="21.375" customWidth="1"/>
     <col min="5" max="5" width="36.125" customWidth="1"/>
   </cols>
@@ -572,30 +576,30 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -603,19 +607,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
         <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
       </c>
       <c r="F3">
         <v>20</v>

--- a/Assets/Scrips/Excel/GameDB.xlsx
+++ b/Assets/Scrips/Excel/GameDB.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DialogEntites" sheetId="1" r:id="rId1"/>
     <sheet name="GameDataEntites" sheetId="2" r:id="rId2"/>
+    <sheet name="ShopDB" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
   <si>
     <t>branch</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,6 +129,61 @@
   </si>
   <si>
     <t>Item/Sword2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataType</t>
+  </si>
+  <si>
+    <t>Swrod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Portion1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Portion2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중급HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본포션이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중급표션이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Portion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item/Portion1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item/Portion2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npcID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquipmentShopNPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PortionShopNPC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -552,10 +608,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -565,7 +621,7 @@
     <col min="5" max="5" width="36.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -584,8 +640,11 @@
       <c r="F1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -604,8 +663,11 @@
       <c r="F2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -623,10 +685,119 @@
       </c>
       <c r="F3">
         <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Assets/Scrips/Excel/GameDB.xlsx
+++ b/Assets/Scrips/Excel/GameDB.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\241013 3D\3D_RPG_241013\Assets\Scrips\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Test\3D_RPG_241013\Assets\Scrips\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D66460-194A-451D-9CFF-67B20F5FD47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DialogEntites" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
   <si>
     <t>branch</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -184,13 +185,57 @@
   </si>
   <si>
     <t>PortionShopNPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>둘스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫스킬이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>둘스킬이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Skill/Skill1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Skill/Skill2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIcon/Skill1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIcon/Skill2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -513,7 +558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -607,11 +652,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A2:A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -736,6 +781,52 @@
         <v>34</v>
       </c>
     </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -743,10 +834,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Scrips/Excel/GameDB.xlsx
+++ b/Assets/Scrips/Excel/GameDB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Test\3D_RPG_241013\Assets\Scrips\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Test2\3D_RPG_241013\Assets\Scrips\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D66460-194A-451D-9CFF-67B20F5FD47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934475A4-B1C5-4974-993A-F72FC1A910B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DialogEntites" sheetId="1" r:id="rId1"/>
@@ -562,10 +562,13 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="22.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -580,7 +583,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -591,7 +594,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -602,7 +605,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -613,7 +616,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -624,7 +627,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -635,7 +638,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -655,7 +658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -837,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/Scrips/Excel/GameDB.xlsx
+++ b/Assets/Scrips/Excel/GameDB.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Test2\3D_RPG_241013\Assets\Scrips\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934475A4-B1C5-4974-993A-F72FC1A910B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF01301-7BD8-4B6B-9D1F-58A9063C0E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2640" windowWidth="28800" windowHeight="12960" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DialogEntites" sheetId="1" r:id="rId1"/>
     <sheet name="GameDataEntites" sheetId="2" r:id="rId2"/>
     <sheet name="ShopDB" sheetId="3" r:id="rId3"/>
+    <sheet name="QuestEntities" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="63">
   <si>
     <t>branch</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -230,6 +231,53 @@
   <si>
     <t>SkillIcon/Skill2</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>questName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>questDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>questClearCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentQuestClearCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫 마을 방문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>둘러보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC와 대화해보자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainNPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainQuest0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subQuest0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuestID</t>
   </si>
 </sst>
 </file>
@@ -840,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -894,4 +942,89 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50EAAD74-0F60-44F7-B27B-671A50A3183B}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.875" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="24.25" customWidth="1"/>
+    <col min="7" max="7" width="19.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assets/Scrips/Excel/GameDB.xlsx
+++ b/Assets/Scrips/Excel/GameDB.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Test2\3D_RPG_241013\Assets\Scrips\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\241013 3D\3D_RPG_241013\Assets\Scrips\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF01301-7BD8-4B6B-9D1F-58A9063C0E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2640" windowWidth="28800" windowHeight="12960" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2640" windowWidth="28800" windowHeight="12960" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DialogEntites" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="104">
   <si>
     <t>branch</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,42 +140,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Portion1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Portion2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본HP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중급HP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본포션이다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중급표션이다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Portion</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Item/Portion1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item/Portion2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>npcID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -253,18 +220,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>둘러보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC와 대화해보자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MainNPC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -273,17 +228,213 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>subQuest0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>QuestID</t>
+  </si>
+  <si>
+    <t>questDialog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어서와. 마을은 처음이지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을 사람들과 대화를 해봐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainQuest0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 포션을 판매하고 있어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 장비를 판매하고 있어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비를 갖춰야 몬스터를 사냥하기 쉽지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사냥터에선 표션이 중요하다고.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PortionNPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquimentNPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포션 NPC와 대화해보자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비 NPC와 대화해보자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을 관리인과 대화해보자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을 관리인에게로..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벌써 다 돌아본거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이건 사냥할 때 필요한 것들이야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idnex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainQuest1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 사냥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성 밖에 스켈레톤이 출몰했다는데…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너가 스켈레톤 5마리만 잡아왔으면 좋겠어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고급HP포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본HP포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중급HP포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최상급HP포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본MP포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중급MP포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고급MP포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최상급MP포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HPPortion1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HPPortion2</t>
+  </si>
+  <si>
+    <t>HPPortion3</t>
+  </si>
+  <si>
+    <t>HPPortion4</t>
+  </si>
+  <si>
+    <t>MpPortion1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MpPortion2</t>
+  </si>
+  <si>
+    <t>MpPortion3</t>
+  </si>
+  <si>
+    <t>MpPortion4</t>
+  </si>
+  <si>
+    <t>생명의 나무에서 추출된 신비한 영약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전설 속 붉은 용의 피 한 방울이 포함된 포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밤하늘을 상징하는 신비로운 치유 물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자연의 정수를 담아 제작된 붉은 물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 대마법사들에 의해 연구되어 탄생한 마법의 포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸른 하늘에서 떨어진 마력의 빗방울로 만들어진 포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고대 마법사들의 마나 샘에서 나오는 물로 만들어진 물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바다 깊숙한 곳에서 발견된 마나의 결정이 녹아든 포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PortionIcon/HP1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PortionIcon/HP2</t>
+  </si>
+  <si>
+    <t>PortionIcon/HP3</t>
+  </si>
+  <si>
+    <t>PortionIcon/HP4</t>
+  </si>
+  <si>
+    <t>PortionIcon/MP1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PortionIcon/MP2</t>
+  </si>
+  <si>
+    <t>PortionIcon/MP3</t>
+  </si>
+  <si>
+    <t>PortionIcon/MP4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -606,7 +757,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -703,18 +854,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="12.375" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="34.5" customWidth="1"/>
     <col min="4" max="4" width="21.375" customWidth="1"/>
-    <col min="5" max="5" width="36.125" customWidth="1"/>
+    <col min="5" max="5" width="49.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -788,94 +941,208 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4" t="s">
         <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="F5">
-        <v>21</v>
+        <v>200</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7">
+        <v>400</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9">
+        <v>200</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10">
+        <v>300</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11">
+        <v>400</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
         <v>42</v>
       </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>46</v>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -885,11 +1152,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -899,7 +1166,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
         <v>12</v>
@@ -907,33 +1174,81 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
         <v>22</v>
       </c>
     </row>
@@ -945,86 +1260,339 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50EAAD74-0F60-44F7-B27B-671A50A3183B}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.875" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="16.875" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="24.25" customWidth="1"/>
-    <col min="7" max="7" width="19.375" customWidth="1"/>
+    <col min="1" max="2" width="18.875" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="21.25" customWidth="1"/>
+    <col min="6" max="6" width="14.75" customWidth="1"/>
+    <col min="7" max="7" width="24.25" customWidth="1"/>
+    <col min="8" max="8" width="55.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
         <v>62</v>
       </c>
-      <c r="B1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
         <v>60</v>
       </c>
-      <c r="B2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
         <v>57</v>
       </c>
-      <c r="E2">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Scrips/Excel/GameDB.xlsx
+++ b/Assets/Scrips/Excel/GameDB.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\241013 3D\3D_RPG_241013\Assets\Scrips\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Test2\3D_RPG_241013\Assets\Scrips\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D3E83B-D383-4A53-B842-0C89BD248DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2640" windowWidth="28800" windowHeight="12960" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2640" windowWidth="28800" windowHeight="12960" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DialogEntites" sheetId="1" r:id="rId1"/>
     <sheet name="GameDataEntites" sheetId="2" r:id="rId2"/>
     <sheet name="ShopDB" sheetId="3" r:id="rId3"/>
     <sheet name="QuestEntities" sheetId="4" r:id="rId4"/>
+    <sheet name="MonsterEntites" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="113">
   <si>
     <t>branch</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -429,12 +431,48 @@
   </si>
   <si>
     <t>PortionIcon/MP4</t>
+  </si>
+  <si>
+    <t>스켈레톤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterRewardDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterIconPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterPrefabPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterMaxHP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>normarMonster1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상 : 경험치, 코인, 낮은 확률로 무기 드랍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -757,7 +795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -854,16 +892,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.375" customWidth="1"/>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="34.5" customWidth="1"/>
     <col min="4" max="4" width="21.375" customWidth="1"/>
@@ -1152,7 +1190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1260,7 +1298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1595,4 +1633,62 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B44A0C7-D973-4A76-8DAC-F13BEF463502}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.875" customWidth="1"/>
+    <col min="2" max="2" width="16.25" customWidth="1"/>
+    <col min="3" max="3" width="36.5" customWidth="1"/>
+    <col min="4" max="4" width="23.375" customWidth="1"/>
+    <col min="5" max="5" width="20.125" customWidth="1"/>
+    <col min="6" max="6" width="22.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assets/Scrips/Excel/GameDB.xlsx
+++ b/Assets/Scrips/Excel/GameDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Test2\3D_RPG_241013\Assets\Scrips\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D3E83B-D383-4A53-B842-0C89BD248DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CAE45D-258C-4AE6-B560-5169524A2E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2640" windowWidth="28800" windowHeight="12960" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="ShopDB" sheetId="3" r:id="rId3"/>
     <sheet name="QuestEntities" sheetId="4" r:id="rId4"/>
     <sheet name="MonsterEntites" sheetId="5" r:id="rId5"/>
+    <sheet name="RewardDropItem" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="120">
   <si>
     <t>branch</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -466,6 +467,34 @@
   </si>
   <si>
     <t>보상 : 경험치, 코인, 낮은 확률로 무기 드랍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewardID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equipment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewardEquipment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewardPortion</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -896,7 +925,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1637,10 +1666,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B44A0C7-D973-4A76-8DAC-F13BEF463502}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1651,9 +1680,11 @@
     <col min="4" max="4" width="23.375" customWidth="1"/>
     <col min="5" max="5" width="20.125" customWidth="1"/>
     <col min="6" max="6" width="22.625" customWidth="1"/>
+    <col min="7" max="7" width="18.375" customWidth="1"/>
+    <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>105</v>
       </c>
@@ -1672,8 +1703,14 @@
       <c r="F1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>111</v>
       </c>
@@ -1685,6 +1722,56 @@
       </c>
       <c r="F2">
         <v>100</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9F22A02-DE77-4A9A-8C53-228B9D02EBA9}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Scrips/Excel/GameDB.xlsx
+++ b/Assets/Scrips/Excel/GameDB.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Test2\3D_RPG_241013\Assets\Scrips\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\241013 3D\3D_RPG_241013\Assets\Scrips\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CAE45D-258C-4AE6-B560-5169524A2E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2640" windowWidth="28800" windowHeight="12960" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2640" windowWidth="28800" windowHeight="12960" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="DialogEntites" sheetId="1" r:id="rId1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="122">
   <si>
     <t>branch</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -495,13 +494,21 @@
   </si>
   <si>
     <t>rewardPortion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewardExp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewardCoin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -824,7 +831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -921,7 +928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1219,7 +1226,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1327,7 +1334,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1665,11 +1672,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B44A0C7-D973-4A76-8DAC-F13BEF463502}">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1684,7 +1691,7 @@
     <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>105</v>
       </c>
@@ -1709,8 +1716,14 @@
       <c r="H1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>111</v>
       </c>
@@ -1728,6 +1741,12 @@
       </c>
       <c r="H2" t="s">
         <v>80</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1737,7 +1756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9F22A02-DE77-4A9A-8C53-228B9D02EBA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Assets/Scrips/Excel/GameDB.xlsx
+++ b/Assets/Scrips/Excel/GameDB.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\241013 3D\3D_RPG_241013\Assets\Scrips\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Test2\3D_RPG_241013\Assets\Scrips\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959895EC-3D5C-4FD7-9343-AD4FB1EED4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2640" windowWidth="28800" windowHeight="12960" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2640" windowWidth="28800" windowHeight="12960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DialogEntites" sheetId="1" r:id="rId1"/>
@@ -18,6 +19,7 @@
     <sheet name="QuestEntities" sheetId="4" r:id="rId4"/>
     <sheet name="MonsterEntites" sheetId="5" r:id="rId5"/>
     <sheet name="RewardDropItem" sheetId="6" r:id="rId6"/>
+    <sheet name="SkillEntities" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="146">
   <si>
     <t>branch</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,50 +160,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Skill1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>첫스킬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>둘스킬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>첫스킬이다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>둘스킬이다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/Skill/Skill1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/Skill/Skill2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillIcon/Skill1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillIcon/Skill2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>questName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -502,13 +460,127 @@
   </si>
   <si>
     <t>rewardCoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillID</t>
+  </si>
+  <si>
+    <t>skillName</t>
+  </si>
+  <si>
+    <t>skillDescription</t>
+  </si>
+  <si>
+    <t>skillRequiredLV</t>
+  </si>
+  <si>
+    <t>skillCollDown</t>
+  </si>
+  <si>
+    <t>skillIconPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillPrefabPath</t>
+  </si>
+  <si>
+    <t>activeSkill1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activeSkill2</t>
+  </si>
+  <si>
+    <t>activeSkill3</t>
+  </si>
+  <si>
+    <t>activeSkill4</t>
+  </si>
+  <si>
+    <t>activeSkill5</t>
+  </si>
+  <si>
+    <t>activeSkill6</t>
+  </si>
+  <si>
+    <t>passiveSkill1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passiveSkill2</t>
+  </si>
+  <si>
+    <t>passiveSkill3</t>
+  </si>
+  <si>
+    <t>passiveSkill4</t>
+  </si>
+  <si>
+    <t>passiveSkill5</t>
+  </si>
+  <si>
+    <t>passiveSkill6</t>
+  </si>
+  <si>
+    <t>엑티브1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엑티브2</t>
+  </si>
+  <si>
+    <t>엑티브3</t>
+  </si>
+  <si>
+    <t>엑티브4</t>
+  </si>
+  <si>
+    <t>엑티브5</t>
+  </si>
+  <si>
+    <t>엑티브6</t>
+  </si>
+  <si>
+    <t>패시브1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패시브2</t>
+  </si>
+  <si>
+    <t>패시브3</t>
+  </si>
+  <si>
+    <t>패시브4</t>
+  </si>
+  <si>
+    <t>패시브5</t>
+  </si>
+  <si>
+    <t>패시브6</t>
+  </si>
+  <si>
+    <t>active</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coolDown</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -831,7 +903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -928,11 +1000,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -942,9 +1014,10 @@
     <col min="3" max="3" width="34.5" customWidth="1"/>
     <col min="4" max="4" width="21.375" customWidth="1"/>
     <col min="5" max="5" width="49.375" customWidth="1"/>
+    <col min="8" max="8" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -966,8 +1039,11 @@
       <c r="G1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -990,7 +1066,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1013,18 +1089,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F4">
         <v>100</v>
@@ -1033,18 +1109,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="E5" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="F5">
         <v>200</v>
@@ -1053,18 +1129,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F6">
         <v>300</v>
@@ -1073,18 +1149,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="E7" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="F7">
         <v>400</v>
@@ -1093,18 +1169,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E8" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F8">
         <v>100</v>
@@ -1113,18 +1189,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="E9" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F9">
         <v>200</v>
@@ -1133,18 +1209,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="E10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="F10">
         <v>300</v>
@@ -1153,18 +1229,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="E11" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F11">
         <v>400</v>
@@ -1173,50 +1249,172 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="G12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>131</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="G13" t="s">
-        <v>38</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" t="s">
+        <v>89</v>
+      </c>
+      <c r="G21" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>128</v>
+      </c>
+      <c r="B22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" t="s">
+        <v>91</v>
+      </c>
+      <c r="G23" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1226,7 +1424,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1251,7 +1449,7 @@
         <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1259,7 +1457,7 @@
         <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1267,7 +1465,7 @@
         <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1275,7 +1473,7 @@
         <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1283,7 +1481,7 @@
         <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1291,7 +1489,7 @@
         <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1299,7 +1497,7 @@
         <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1307,7 +1505,7 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1334,7 +1532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1354,45 +1552,45 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
         <v>29</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1401,24 +1599,24 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1427,24 +1625,24 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1453,24 +1651,24 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1479,50 +1677,50 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
         <v>47</v>
-      </c>
-      <c r="E6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1531,24 +1729,24 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1557,50 +1755,50 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
         <v>54</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1609,24 +1807,24 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1635,24 +1833,24 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1661,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1672,10 +1870,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -1693,45 +1891,45 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" t="s">
         <v>107</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>108</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>109</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>110</v>
-      </c>
-      <c r="G1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H1" t="s">
-        <v>119</v>
-      </c>
-      <c r="I1" t="s">
-        <v>120</v>
-      </c>
-      <c r="J1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -1740,7 +1938,7 @@
         <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="I2">
         <v>10</v>
@@ -1756,7 +1954,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1770,27 +1968,209 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A66D596A-6006-439E-B49A-C567B91491D1}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="A2:H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="16.875" customWidth="1"/>
+    <col min="4" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="17.75" customWidth="1"/>
+    <col min="7" max="7" width="16.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" t="s">
         <v>117</v>
+      </c>
+      <c r="H1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" t="s">
+        <v>134</v>
+      </c>
+      <c r="H6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" t="s">
+        <v>136</v>
+      </c>
+      <c r="H8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" t="s">
+        <v>137</v>
+      </c>
+      <c r="H9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" t="s">
+        <v>138</v>
+      </c>
+      <c r="H10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" t="s">
+        <v>139</v>
+      </c>
+      <c r="H11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" t="s">
+        <v>140</v>
+      </c>
+      <c r="H12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" t="s">
+        <v>141</v>
+      </c>
+      <c r="H13" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Scrips/Excel/GameDB.xlsx
+++ b/Assets/Scrips/Excel/GameDB.xlsx
@@ -1145,8 +1145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/Scrips/Excel/GameDB.xlsx
+++ b/Assets/Scrips/Excel/GameDB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2640" windowWidth="28800" windowHeight="12960" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2640" windowWidth="28800" windowHeight="12960"/>
   </bookViews>
   <sheets>
     <sheet name="DialogEntites" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="189">
   <si>
     <t>branch</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,30 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>점프키를 알려주지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>와오</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래 다음부터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>호호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>호하</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dataID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -99,10 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sword2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sword1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -717,6 +689,30 @@
   </si>
   <si>
     <t>Item/Sword4</t>
+  </si>
+  <si>
+    <t>shield1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>난 포션을 판매하고 있어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사냥터에선 포션이 꼭 필요하지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한번 둘러봐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>난 장비를 판매하고 있어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강해지기 위해선 장비가 꼭 필요하지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1048,13 +1044,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="22.125" customWidth="1"/>
+    <col min="3" max="3" width="32.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -1076,7 +1072,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1087,7 +1083,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1098,7 +1094,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1109,7 +1105,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1120,7 +1116,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1131,7 +1127,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -1145,7 +1141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -1162,54 +1158,54 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="I1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="J1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C2" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D2" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="F2">
         <v>100</v>
       </c>
       <c r="G2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -1220,22 +1216,22 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B3" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D3" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F3">
         <v>200</v>
       </c>
       <c r="G3" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -1246,22 +1242,22 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B4" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C4" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D4" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="F4">
         <v>300</v>
       </c>
       <c r="G4" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="I4">
         <v>3</v>
@@ -1272,22 +1268,22 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B5" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C5" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D5" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F5">
         <v>400</v>
       </c>
       <c r="G5" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="I5">
         <v>4</v>
@@ -1298,22 +1294,22 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B6" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C6" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D6" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F6">
         <v>100</v>
       </c>
       <c r="G6" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1324,22 +1320,22 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B7" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D7" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F7">
         <v>200</v>
       </c>
       <c r="G7" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -1350,22 +1346,22 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B8" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C8" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D8" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F8">
         <v>300</v>
       </c>
       <c r="G8" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="I8">
         <v>3</v>
@@ -1376,22 +1372,22 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B9" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C9" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D9" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F9">
         <v>400</v>
       </c>
       <c r="G9" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="I9">
         <v>4</v>
@@ -1402,22 +1398,22 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F10">
         <v>100</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J10">
         <v>50</v>
@@ -1425,22 +1421,22 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F11">
         <v>200</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J11">
         <v>100</v>
@@ -1448,22 +1444,22 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F12">
         <v>300</v>
       </c>
       <c r="G12" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J12">
         <v>150</v>
@@ -1471,22 +1467,22 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F13">
         <v>400</v>
       </c>
       <c r="G13" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J13">
         <v>200</v>
@@ -1494,22 +1490,22 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E14" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F14">
         <v>100</v>
       </c>
       <c r="G14" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J14">
         <v>50</v>
@@ -1517,22 +1513,22 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F15">
         <v>200</v>
       </c>
       <c r="G15" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J15">
         <v>100</v>
@@ -1540,22 +1536,22 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E16" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F16">
         <v>300</v>
       </c>
       <c r="G16" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J16">
         <v>150</v>
@@ -1563,22 +1559,22 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F17">
         <v>400</v>
       </c>
       <c r="G17" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J17">
         <v>200</v>
@@ -1586,19 +1582,19 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B18" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C18" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D18" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="G18" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1606,19 +1602,19 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B19" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C19" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D19" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G19" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="I19">
         <v>2</v>
@@ -1626,19 +1622,19 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B20" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C20" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D20" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="G20" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="I20">
         <v>3</v>
@@ -1646,19 +1642,19 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B21" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C21" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D21" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="G21" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="I21">
         <v>4</v>
@@ -1666,19 +1662,19 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B22" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C22" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D22" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="G22" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="I22">
         <v>5</v>
@@ -1686,19 +1682,19 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" t="s">
+        <v>141</v>
+      </c>
+      <c r="G23" t="s">
         <v>120</v>
-      </c>
-      <c r="C23" t="s">
-        <v>135</v>
-      </c>
-      <c r="D23" t="s">
-        <v>148</v>
-      </c>
-      <c r="G23" t="s">
-        <v>127</v>
       </c>
       <c r="I23">
         <v>6</v>
@@ -1706,19 +1702,19 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" t="s">
+        <v>129</v>
+      </c>
+      <c r="D24" t="s">
+        <v>142</v>
+      </c>
+      <c r="G24" t="s">
         <v>121</v>
-      </c>
-      <c r="C24" t="s">
-        <v>136</v>
-      </c>
-      <c r="D24" t="s">
-        <v>149</v>
-      </c>
-      <c r="G24" t="s">
-        <v>128</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -1726,19 +1722,19 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B25" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C25" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D25" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="G25" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="I25">
         <v>2</v>
@@ -1746,19 +1742,19 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B26" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C26" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D26" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="G26" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="I26">
         <v>3</v>
@@ -1766,19 +1762,19 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B27" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C27" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D27" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="G27" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="I27">
         <v>4</v>
@@ -1786,19 +1782,19 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B28" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C28" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D28" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="G28" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="I28">
         <v>5</v>
@@ -1806,19 +1802,19 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B29" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C29" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D29" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="G29" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="I29">
         <v>6</v>
@@ -1833,10 +1829,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1846,90 +1842,138 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -1960,45 +2004,45 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
         <v>25</v>
-      </c>
-      <c r="F1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -2007,24 +2051,24 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -2033,24 +2077,24 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -2059,25 +2103,25 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
         <v>35</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>42</v>
-      </c>
       <c r="F5">
         <v>0</v>
       </c>
@@ -2085,24 +2129,24 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2111,24 +2155,24 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2137,24 +2181,24 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2163,24 +2207,24 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2189,24 +2233,24 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2215,50 +2259,50 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
         <v>44</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -2267,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2299,54 +2343,54 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="H1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="I1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="J1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F2">
         <v>100</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="I2">
         <v>10</v>
@@ -2376,27 +2420,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Scrips/Excel/GameDB.xlsx
+++ b/Assets/Scrips/Excel/GameDB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2640" windowWidth="28800" windowHeight="12960"/>
+    <workbookView xWindow="0" yWindow="2640" windowWidth="28800" windowHeight="12960" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DialogEntites" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="191">
   <si>
     <t>branch</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -550,25 +550,6 @@
     <t>Prefab/Skill/ActSkill6</t>
   </si>
   <si>
-    <t>Prefab/Skill/PasSkill1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/Skill/PasSkill2</t>
-  </si>
-  <si>
-    <t>Prefab/Skill/PasSkill3</t>
-  </si>
-  <si>
-    <t>Prefab/Skill/PasSkill4</t>
-  </si>
-  <si>
-    <t>Prefab/Skill/PasSkill5</t>
-  </si>
-  <si>
-    <t>Prefab/Skill/PasSkill6</t>
-  </si>
-  <si>
     <t>amount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -713,6 +694,33 @@
   <si>
     <t>강해지기 위해선 장비가 꼭 필요하지</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력을 상승시킨다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP를 상승시킨다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Skill/BuffSkill1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Skill/BuffSkill2</t>
+  </si>
+  <si>
+    <t>Prefab/Skill/BuffSkill3</t>
+  </si>
+  <si>
+    <t>Prefab/Skill/BuffSkill4</t>
+  </si>
+  <si>
+    <t>Prefab/Skill/BuffSkill5</t>
+  </si>
+  <si>
+    <t>Prefab/Skill/BuffSkill6</t>
   </si>
 </sst>
 </file>
@@ -1044,7 +1052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1072,7 +1080,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1083,7 +1091,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1094,7 +1102,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1105,7 +1113,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1116,7 +1124,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1127,7 +1135,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -1141,8 +1149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1150,7 +1158,7 @@
     <col min="1" max="1" width="16.625" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="34.5" customWidth="1"/>
-    <col min="4" max="4" width="25.25" customWidth="1"/>
+    <col min="4" max="4" width="35.25" customWidth="1"/>
     <col min="5" max="5" width="49.375" customWidth="1"/>
     <col min="8" max="8" width="10.875" customWidth="1"/>
     <col min="9" max="9" width="11.75" customWidth="1"/>
@@ -1185,27 +1193,27 @@
         <v>135</v>
       </c>
       <c r="J1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F2">
         <v>100</v>
       </c>
       <c r="G2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -1216,22 +1224,22 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F3">
         <v>200</v>
       </c>
       <c r="G3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -1242,22 +1250,22 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" t="s">
         <v>153</v>
       </c>
-      <c r="B4" t="s">
-        <v>159</v>
-      </c>
       <c r="C4" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F4">
         <v>300</v>
       </c>
       <c r="G4" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="I4">
         <v>3</v>
@@ -1268,22 +1276,22 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C5" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D5" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F5">
         <v>400</v>
       </c>
       <c r="G5" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="I5">
         <v>4</v>
@@ -1294,22 +1302,22 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B6" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C6" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D6" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F6">
         <v>100</v>
       </c>
       <c r="G6" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1320,22 +1328,22 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F7">
         <v>200</v>
       </c>
       <c r="G7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -1346,22 +1354,22 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B8" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C8" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D8" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F8">
         <v>300</v>
       </c>
       <c r="G8" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="I8">
         <v>3</v>
@@ -1372,22 +1380,22 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B9" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C9" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D9" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F9">
         <v>400</v>
       </c>
       <c r="G9" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="I9">
         <v>4</v>
@@ -1711,10 +1719,16 @@
         <v>129</v>
       </c>
       <c r="D24" t="s">
-        <v>142</v>
+        <v>185</v>
+      </c>
+      <c r="E24" t="s">
+        <v>183</v>
       </c>
       <c r="G24" t="s">
         <v>121</v>
+      </c>
+      <c r="H24">
+        <v>10</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -1731,10 +1745,16 @@
         <v>130</v>
       </c>
       <c r="D25" t="s">
-        <v>143</v>
+        <v>186</v>
+      </c>
+      <c r="E25" t="s">
+        <v>184</v>
       </c>
       <c r="G25" t="s">
         <v>121</v>
+      </c>
+      <c r="H25">
+        <v>10</v>
       </c>
       <c r="I25">
         <v>2</v>
@@ -1751,10 +1771,13 @@
         <v>131</v>
       </c>
       <c r="D26" t="s">
-        <v>144</v>
+        <v>187</v>
       </c>
       <c r="G26" t="s">
         <v>121</v>
+      </c>
+      <c r="H26">
+        <v>10</v>
       </c>
       <c r="I26">
         <v>3</v>
@@ -1771,10 +1794,13 @@
         <v>132</v>
       </c>
       <c r="D27" t="s">
-        <v>145</v>
+        <v>188</v>
       </c>
       <c r="G27" t="s">
         <v>121</v>
+      </c>
+      <c r="H27">
+        <v>10</v>
       </c>
       <c r="I27">
         <v>4</v>
@@ -1791,10 +1817,13 @@
         <v>133</v>
       </c>
       <c r="D28" t="s">
-        <v>146</v>
+        <v>189</v>
       </c>
       <c r="G28" t="s">
         <v>121</v>
+      </c>
+      <c r="H28">
+        <v>10</v>
       </c>
       <c r="I28">
         <v>5</v>
@@ -1811,10 +1840,13 @@
         <v>134</v>
       </c>
       <c r="D29" t="s">
-        <v>147</v>
+        <v>190</v>
       </c>
       <c r="G29" t="s">
         <v>121</v>
+      </c>
+      <c r="H29">
+        <v>10</v>
       </c>
       <c r="I29">
         <v>6</v>
@@ -1917,7 +1949,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1925,7 +1957,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -1933,7 +1965,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -1941,7 +1973,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -1949,7 +1981,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -1957,7 +1989,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -1965,7 +1997,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -1973,7 +2005,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Scrips/Excel/GameDB.xlsx
+++ b/Assets/Scrips/Excel/GameDB.xlsx
@@ -1149,8 +1149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1604,6 +1604,9 @@
       <c r="G18" t="s">
         <v>120</v>
       </c>
+      <c r="H18">
+        <v>10</v>
+      </c>
       <c r="I18">
         <v>1</v>
       </c>
@@ -1624,6 +1627,9 @@
       <c r="G19" t="s">
         <v>120</v>
       </c>
+      <c r="H19">
+        <v>10</v>
+      </c>
       <c r="I19">
         <v>2</v>
       </c>
@@ -1644,6 +1650,9 @@
       <c r="G20" t="s">
         <v>120</v>
       </c>
+      <c r="H20">
+        <v>10</v>
+      </c>
       <c r="I20">
         <v>3</v>
       </c>
@@ -1664,6 +1673,9 @@
       <c r="G21" t="s">
         <v>120</v>
       </c>
+      <c r="H21">
+        <v>10</v>
+      </c>
       <c r="I21">
         <v>4</v>
       </c>
@@ -1684,6 +1696,9 @@
       <c r="G22" t="s">
         <v>120</v>
       </c>
+      <c r="H22">
+        <v>10</v>
+      </c>
       <c r="I22">
         <v>5</v>
       </c>
@@ -1703,6 +1718,9 @@
       </c>
       <c r="G23" t="s">
         <v>120</v>
+      </c>
+      <c r="H23">
+        <v>10</v>
       </c>
       <c r="I23">
         <v>6</v>

--- a/Assets/Scrips/Excel/GameDB.xlsx
+++ b/Assets/Scrips/Excel/GameDB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2640" windowWidth="28800" windowHeight="12960" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2640" windowWidth="28800" windowHeight="12960"/>
   </bookViews>
   <sheets>
     <sheet name="DialogEntites" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="195">
   <si>
     <t>branch</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,18 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>???</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dataID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -721,6 +709,34 @@
   </si>
   <si>
     <t>Prefab/Skill/BuffSkill6</t>
+  </si>
+  <si>
+    <t>포션판매자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비판매자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이승훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여긴뭐지…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어어어어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누구냐…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1050,14 +1066,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="22.75" customWidth="1"/>
     <col min="3" max="3" width="32.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1077,10 +1094,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>188</v>
       </c>
       <c r="C2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1088,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>188</v>
       </c>
       <c r="C3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1099,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>188</v>
       </c>
       <c r="C4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1110,10 +1127,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>189</v>
       </c>
       <c r="C5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1121,10 +1138,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>189</v>
       </c>
       <c r="C6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1132,10 +1149,43 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>189</v>
       </c>
       <c r="C7" t="s">
-        <v>180</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>101</v>
+      </c>
+      <c r="B8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>101</v>
+      </c>
+      <c r="B9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>101</v>
+      </c>
+      <c r="B10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C10" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -1149,7 +1199,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -1166,54 +1216,54 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
       <c r="H1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F2">
         <v>100</v>
       </c>
       <c r="G2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -1224,22 +1274,22 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F3">
         <v>200</v>
       </c>
       <c r="G3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -1250,22 +1300,22 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F4">
         <v>300</v>
       </c>
       <c r="G4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I4">
         <v>3</v>
@@ -1276,22 +1326,22 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F5">
         <v>400</v>
       </c>
       <c r="G5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I5">
         <v>4</v>
@@ -1302,22 +1352,22 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F6">
         <v>100</v>
       </c>
       <c r="G6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1328,22 +1378,22 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F7">
         <v>200</v>
       </c>
       <c r="G7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -1354,22 +1404,22 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F8">
         <v>300</v>
       </c>
       <c r="G8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I8">
         <v>3</v>
@@ -1380,22 +1430,22 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F9">
         <v>400</v>
       </c>
       <c r="G9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I9">
         <v>4</v>
@@ -1406,22 +1456,22 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F10">
         <v>100</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J10">
         <v>50</v>
@@ -1429,22 +1479,22 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F11">
         <v>200</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J11">
         <v>100</v>
@@ -1452,22 +1502,22 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F12">
         <v>300</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J12">
         <v>150</v>
@@ -1475,22 +1525,22 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F13">
         <v>400</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J13">
         <v>200</v>
@@ -1498,22 +1548,22 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F14">
         <v>100</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J14">
         <v>50</v>
@@ -1521,22 +1571,22 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F15">
         <v>200</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J15">
         <v>100</v>
@@ -1544,22 +1594,22 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F16">
         <v>300</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J16">
         <v>150</v>
@@ -1567,22 +1617,22 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F17">
         <v>400</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J17">
         <v>200</v>
@@ -1590,19 +1640,19 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B18" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C18" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D18" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G18" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H18">
         <v>10</v>
@@ -1613,19 +1663,19 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B19" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C19" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D19" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G19" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H19">
         <v>10</v>
@@ -1636,19 +1686,19 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C20" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D20" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H20">
         <v>10</v>
@@ -1659,19 +1709,19 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B21" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C21" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D21" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G21" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H21">
         <v>10</v>
@@ -1682,19 +1732,19 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C22" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D22" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G22" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H22">
         <v>10</v>
@@ -1705,19 +1755,19 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B23" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C23" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D23" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G23" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H23">
         <v>10</v>
@@ -1728,22 +1778,22 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B24" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C24" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D24" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E24" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G24" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H24">
         <v>10</v>
@@ -1754,22 +1804,22 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B25" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C25" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D25" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E25" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G25" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H25">
         <v>10</v>
@@ -1780,19 +1830,19 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B26" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C26" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D26" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G26" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H26">
         <v>10</v>
@@ -1803,19 +1853,19 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B27" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C27" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D27" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G27" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H27">
         <v>10</v>
@@ -1826,19 +1876,19 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" t="s">
+        <v>186</v>
+      </c>
+      <c r="G28" t="s">
         <v>118</v>
-      </c>
-      <c r="C28" t="s">
-        <v>133</v>
-      </c>
-      <c r="D28" t="s">
-        <v>189</v>
-      </c>
-      <c r="G28" t="s">
-        <v>121</v>
       </c>
       <c r="H28">
         <v>10</v>
@@ -1849,19 +1899,19 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B29" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C29" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D29" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G29" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H29">
         <v>10</v>
@@ -1892,138 +1942,138 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -2054,71 +2104,71 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" t="s">
-        <v>20</v>
-      </c>
       <c r="H1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
         <v>23</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -2127,24 +2177,24 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -2153,24 +2203,24 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2179,24 +2229,24 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2205,24 +2255,24 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2231,24 +2281,24 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2257,24 +2307,24 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2283,24 +2333,24 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2309,24 +2359,24 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2335,24 +2385,24 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -2361,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2393,54 +2443,54 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" t="s">
         <v>79</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>80</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>81</v>
       </c>
-      <c r="D1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" t="s">
-        <v>84</v>
-      </c>
       <c r="G1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" t="s">
         <v>92</v>
-      </c>
-      <c r="H1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F2">
         <v>100</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I2">
         <v>10</v>
@@ -2470,27 +2520,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Scrips/Excel/GameDB.xlsx
+++ b/Assets/Scrips/Excel/GameDB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2640" windowWidth="28800" windowHeight="12960"/>
+    <workbookView xWindow="0" yWindow="2640" windowWidth="28800" windowHeight="12960" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="DialogEntites" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="195">
   <si>
     <t>branch</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -550,32 +550,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sword1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sword2</t>
-  </si>
-  <si>
-    <t>sword3</t>
-  </si>
-  <si>
-    <t>sword4</t>
-  </si>
-  <si>
-    <t>shield1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shield2</t>
-  </si>
-  <si>
-    <t>shield3</t>
-  </si>
-  <si>
-    <t>shield4</t>
-  </si>
-  <si>
     <t>명예의 검</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -660,10 +634,6 @@
     <t>Item/Sword4</t>
   </si>
   <si>
-    <t>shield1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>난 포션을 판매하고 있어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -737,6 +707,36 @@
   <si>
     <t>누구냐…</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossMonster1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말자하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sword2</t>
+  </si>
+  <si>
+    <t>Sword3</t>
+  </si>
+  <si>
+    <t>Sword4</t>
+  </si>
+  <si>
+    <t>Shield1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shield2</t>
+  </si>
+  <si>
+    <t>Shield3</t>
+  </si>
+  <si>
+    <t>Shield4</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -1094,10 +1094,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C3" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C4" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1127,10 +1127,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C5" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1138,10 +1138,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C6" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1149,10 +1149,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C7" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1160,10 +1160,10 @@
         <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C8" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1171,10 +1171,10 @@
         <v>101</v>
       </c>
       <c r="B9" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C9" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1182,10 +1182,10 @@
         <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C10" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -1199,8 +1199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C20:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1248,16 +1248,16 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -1274,16 +1274,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" t="s">
         <v>143</v>
       </c>
-      <c r="B3" t="s">
-        <v>151</v>
-      </c>
       <c r="C3" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F3">
         <v>200</v>
@@ -1300,16 +1300,16 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>189</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C4" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D4" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F4">
         <v>300</v>
@@ -1326,16 +1326,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" t="s">
         <v>145</v>
       </c>
-      <c r="B5" t="s">
-        <v>153</v>
-      </c>
       <c r="C5" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D5" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F5">
         <v>400</v>
@@ -1352,16 +1352,16 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" t="s">
         <v>146</v>
       </c>
-      <c r="B6" t="s">
-        <v>154</v>
-      </c>
       <c r="C6" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D6" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="F6">
         <v>100</v>
@@ -1378,16 +1378,16 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B7" t="s">
         <v>147</v>
       </c>
-      <c r="B7" t="s">
-        <v>155</v>
-      </c>
       <c r="C7" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D7" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F7">
         <v>200</v>
@@ -1404,16 +1404,16 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B8" t="s">
         <v>148</v>
       </c>
-      <c r="B8" t="s">
-        <v>156</v>
-      </c>
       <c r="C8" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D8" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F8">
         <v>300</v>
@@ -1430,16 +1430,16 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" t="s">
         <v>149</v>
       </c>
-      <c r="B9" t="s">
-        <v>157</v>
-      </c>
       <c r="C9" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D9" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F9">
         <v>400</v>
@@ -1787,10 +1787,10 @@
         <v>126</v>
       </c>
       <c r="D24" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E24" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="G24" t="s">
         <v>118</v>
@@ -1813,10 +1813,10 @@
         <v>127</v>
       </c>
       <c r="D25" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E25" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="G25" t="s">
         <v>118</v>
@@ -1839,7 +1839,7 @@
         <v>128</v>
       </c>
       <c r="D26" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="G26" t="s">
         <v>118</v>
@@ -1862,7 +1862,7 @@
         <v>129</v>
       </c>
       <c r="D27" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="G27" t="s">
         <v>118</v>
@@ -1885,7 +1885,7 @@
         <v>130</v>
       </c>
       <c r="D28" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="G28" t="s">
         <v>118</v>
@@ -1908,7 +1908,7 @@
         <v>131</v>
       </c>
       <c r="D29" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="G29" t="s">
         <v>118</v>
@@ -1932,7 +1932,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B17" sqref="B10:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2017,7 +2017,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>142</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -2025,7 +2025,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -2033,7 +2033,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>144</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -2041,7 +2041,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -2049,7 +2049,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -2057,7 +2057,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>147</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -2065,7 +2065,7 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>148</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2073,7 +2073,7 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>149</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -2423,10 +2423,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2497,6 +2497,32 @@
       </c>
       <c r="J2">
         <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3">
+        <v>500</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3">
+        <v>100</v>
+      </c>
+      <c r="J3">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Scrips/Excel/GameDB.xlsx
+++ b/Assets/Scrips/Excel/GameDB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2640" windowWidth="28800" windowHeight="12960" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2640" windowWidth="28800" windowHeight="12960" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DialogEntites" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="206">
   <si>
     <t>branch</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -427,13 +427,6 @@
     <t>passiveSkill6</t>
   </si>
   <si>
-    <t>엑티브1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엑티브2</t>
-  </si>
-  <si>
     <t>엑티브3</t>
   </si>
   <si>
@@ -446,13 +439,6 @@
     <t>엑티브6</t>
   </si>
   <si>
-    <t>패시브1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>패시브2</t>
-  </si>
-  <si>
     <t>패시브3</t>
   </si>
   <si>
@@ -689,26 +675,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이승훈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여긴뭐지…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어어어어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>누구냐…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bossMonster1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -737,6 +703,86 @@
   </si>
   <si>
     <t>Shield4</t>
+  </si>
+  <si>
+    <t>촌장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점들은 다 둘러봤지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혹시 마을 밖 스켈레톤이 활기를 친다는데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을을 다 구경했으면 스켈레톤좀 잡아왔으면 좋겠어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역시 잡아올 줄 알았다니까</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근데 저 멀리 마을을 위협하는 녀석이 있어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얘는 진짜 위험해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을을 한번 구경해봐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점엔 다양한 것들을 팔고있어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넌 최고가 될꺼야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UICaapture/Boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UICaapture/Skeleton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이스 스톤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기 베기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리젠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강력한 전기 에너지를 검에 실어 적을 내려치며 번개 속성 피해를 입힌다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼음 속성의 돌을 소환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1066,10 +1112,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1094,10 +1140,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1105,10 +1151,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1116,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1127,10 +1173,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1138,10 +1184,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C6" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1149,43 +1195,142 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B8" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C8" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C9" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
+        <v>100</v>
+      </c>
+      <c r="B10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>101</v>
       </c>
-      <c r="B10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C10" t="s">
-        <v>185</v>
+      <c r="B11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>101</v>
+      </c>
+      <c r="B12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>101</v>
+      </c>
+      <c r="B13" t="s">
+        <v>186</v>
+      </c>
+      <c r="C13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>102</v>
+      </c>
+      <c r="B14" t="s">
+        <v>186</v>
+      </c>
+      <c r="C14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>102</v>
+      </c>
+      <c r="B15" t="s">
+        <v>186</v>
+      </c>
+      <c r="C15" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>102</v>
+      </c>
+      <c r="B16" t="s">
+        <v>186</v>
+      </c>
+      <c r="C16" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>103</v>
+      </c>
+      <c r="B17" t="s">
+        <v>186</v>
+      </c>
+      <c r="C17" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>103</v>
+      </c>
+      <c r="B18" t="s">
+        <v>186</v>
+      </c>
+      <c r="C18" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>103</v>
+      </c>
+      <c r="B19" t="s">
+        <v>186</v>
+      </c>
+      <c r="C19" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -1200,7 +1345,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C20:C27"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1209,7 +1354,7 @@
     <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="34.5" customWidth="1"/>
     <col min="4" max="4" width="35.25" customWidth="1"/>
-    <col min="5" max="5" width="49.375" customWidth="1"/>
+    <col min="5" max="5" width="62.375" customWidth="1"/>
     <col min="8" max="8" width="10.875" customWidth="1"/>
     <col min="9" max="9" width="11.75" customWidth="1"/>
   </cols>
@@ -1237,13 +1382,13 @@
         <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -1251,19 +1396,19 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F2">
         <v>100</v>
       </c>
       <c r="G2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -1274,22 +1419,22 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F3">
         <v>200</v>
       </c>
       <c r="G3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -1300,22 +1445,22 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F4">
         <v>300</v>
       </c>
       <c r="G4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I4">
         <v>3</v>
@@ -1326,22 +1471,22 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F5">
         <v>400</v>
       </c>
       <c r="G5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I5">
         <v>4</v>
@@ -1352,22 +1497,22 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="B6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" t="s">
         <v>146</v>
-      </c>
-      <c r="C6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D6" t="s">
-        <v>150</v>
       </c>
       <c r="F6">
         <v>100</v>
       </c>
       <c r="G6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1378,22 +1523,22 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" t="s">
         <v>147</v>
-      </c>
-      <c r="C7" t="s">
-        <v>159</v>
-      </c>
-      <c r="D7" t="s">
-        <v>151</v>
       </c>
       <c r="F7">
         <v>200</v>
       </c>
       <c r="G7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -1404,22 +1549,22 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" t="s">
         <v>148</v>
-      </c>
-      <c r="C8" t="s">
-        <v>160</v>
-      </c>
-      <c r="D8" t="s">
-        <v>152</v>
       </c>
       <c r="F8">
         <v>300</v>
       </c>
       <c r="G8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I8">
         <v>3</v>
@@ -1430,22 +1575,22 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" t="s">
         <v>149</v>
-      </c>
-      <c r="C9" t="s">
-        <v>161</v>
-      </c>
-      <c r="D9" t="s">
-        <v>153</v>
       </c>
       <c r="F9">
         <v>400</v>
       </c>
       <c r="G9" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I9">
         <v>4</v>
@@ -1643,16 +1788,19 @@
         <v>93</v>
       </c>
       <c r="B18" t="s">
-        <v>105</v>
+        <v>200</v>
       </c>
       <c r="C18" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D18" t="s">
-        <v>133</v>
+        <v>129</v>
+      </c>
+      <c r="E18" t="s">
+        <v>205</v>
       </c>
       <c r="G18" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H18">
         <v>10</v>
@@ -1666,22 +1814,25 @@
         <v>94</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>201</v>
       </c>
       <c r="C19" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D19" t="s">
-        <v>134</v>
+        <v>130</v>
+      </c>
+      <c r="E19" t="s">
+        <v>204</v>
       </c>
       <c r="G19" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H19">
         <v>10</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1689,22 +1840,22 @@
         <v>95</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C20" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D20" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G20" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H20">
         <v>10</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1712,22 +1863,22 @@
         <v>96</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G21" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H21">
         <v>10</v>
       </c>
       <c r="I21">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1735,22 +1886,22 @@
         <v>97</v>
       </c>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C22" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D22" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G22" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H22">
         <v>10</v>
       </c>
       <c r="I22">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -1758,22 +1909,22 @@
         <v>98</v>
       </c>
       <c r="B23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C23" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D23" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G23" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H23">
         <v>10</v>
       </c>
       <c r="I23">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -1781,19 +1932,19 @@
         <v>99</v>
       </c>
       <c r="B24" t="s">
-        <v>111</v>
+        <v>202</v>
       </c>
       <c r="C24" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D24" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E24" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G24" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H24">
         <v>10</v>
@@ -1807,25 +1958,25 @@
         <v>100</v>
       </c>
       <c r="B25" t="s">
-        <v>112</v>
+        <v>203</v>
       </c>
       <c r="C25" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D25" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E25" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G25" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H25">
         <v>10</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -1833,22 +1984,22 @@
         <v>101</v>
       </c>
       <c r="B26" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C26" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D26" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G26" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H26">
         <v>10</v>
       </c>
       <c r="I26">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -1856,22 +2007,22 @@
         <v>102</v>
       </c>
       <c r="B27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" t="s">
+        <v>172</v>
+      </c>
+      <c r="G27" t="s">
         <v>114</v>
-      </c>
-      <c r="C27" t="s">
-        <v>129</v>
-      </c>
-      <c r="D27" t="s">
-        <v>176</v>
-      </c>
-      <c r="G27" t="s">
-        <v>118</v>
       </c>
       <c r="H27">
         <v>10</v>
       </c>
       <c r="I27">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -1879,22 +2030,22 @@
         <v>103</v>
       </c>
       <c r="B28" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C28" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D28" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G28" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H28">
         <v>10</v>
       </c>
       <c r="I28">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -1902,22 +2053,22 @@
         <v>104</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C29" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D29" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G29" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H29">
         <v>10</v>
       </c>
       <c r="I29">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1931,13 +2082,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B10:B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -2025,7 +2177,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -2033,7 +2185,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -2041,7 +2193,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -2049,7 +2201,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -2057,7 +2209,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -2065,7 +2217,7 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2073,7 +2225,7 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -2425,8 +2577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2483,6 +2635,9 @@
       <c r="C2" t="s">
         <v>83</v>
       </c>
+      <c r="D2" t="s">
+        <v>199</v>
+      </c>
       <c r="F2">
         <v>100</v>
       </c>
@@ -2501,13 +2656,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B3" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C3" t="s">
         <v>83</v>
+      </c>
+      <c r="D3" t="s">
+        <v>198</v>
       </c>
       <c r="F3">
         <v>500</v>
